--- a/beeblz/beeblz-facebook/doc/Web용 Graph Library.xlsx
+++ b/beeblz/beeblz-facebook/doc/Web용 Graph Library.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="124">
   <si>
     <t>workflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>http://caitlingannon.com/2007/09/21/jsvis-javascript-visualization-software/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsVIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>canviz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cytoscape Web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,18 +259,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Raphaël</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://raphaeljs.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Graphviz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CPL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +324,6 @@
   </si>
   <si>
     <t>http://js-graph-it.sourceforge.net/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>js-graph-it</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,19 +450,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moowheel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Interactive JS representation for connections and relations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://nodebox.net/code/index.php/Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,6 +468,54 @@
   <si>
     <t>Python Graph Visualization
 NodeBox is a Mac OS X application that lets you create 2D visuals (static, animated or interactive) using Python programming code and export them as a PDF or a QuickTime movie. NodeBox is free and well-documented.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/7034/graph-visualization-code-in-javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canviz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytoscape Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript, phython</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsVIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raphaël</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphviz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js-graph-it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moowheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +524,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -614,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,8 +646,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,17 +667,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,13 +972,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -975,47 +994,52 @@
     <col min="13" max="13" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1029,349 +1053,349 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10"/>
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>40179</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="A5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
         <v>39326</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="6">
+        <v>39356</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6">
+        <v>39814</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9">
-        <v>39356</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9">
-        <v>39814</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>40544</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>40483</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="6">
+        <v>40422</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="9">
-        <v>40422</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="6">
+        <v>40299</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="9">
-        <v>40299</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>40544</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3"/>
@@ -1379,704 +1403,704 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="6">
+        <v>40544</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6">
+        <v>40179</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6">
+        <v>39814</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="H15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="6">
+        <v>38930</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="6">
+        <v>40360</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="9">
-        <v>40544</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F18" s="6">
+        <v>40483</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="9">
-        <v>40179</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="9">
-        <v>39814</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6">
+        <v>38961</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="9">
-        <v>38930</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="9">
-        <v>40360</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="9">
-        <v>40483</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="9">
-        <v>38961</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="6">
+        <v>40544</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="6">
+        <v>39083</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6">
+        <v>40391</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="6">
+        <v>40360</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="6">
+        <v>40544</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="6">
+        <v>39600</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="9">
+    <row r="29" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="6">
         <v>40544</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="9">
-        <v>39083</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="9">
-        <v>40391</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="9">
-        <v>40360</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="9">
-        <v>40544</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="9">
-        <v>39600</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="9">
-        <v>40544</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
       <c r="M33" s="3"/>
     </row>
   </sheetData>
@@ -2119,6 +2143,7 @@
     <hyperlink ref="D27" r:id="rId24"/>
     <hyperlink ref="D28" r:id="rId25"/>
     <hyperlink ref="D29" r:id="rId26"/>
+    <hyperlink ref="A1" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/beeblz/beeblz-facebook/doc/Web용 Graph Library.xlsx
+++ b/beeblz/beeblz-facebook/doc/Web용 Graph Library.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="130">
   <si>
     <t>workflow</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,11 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다양한 기능 많이 제공
-Jit, an interactive, multi-purpose graph drawing and layout framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Promising project using HTML5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,6 +511,36 @@
   </si>
   <si>
     <t>NodeBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 기능 많이 제공
+Jit, an interactive, multi-purpose graph drawing and layout framework
+이미지 노드 지원 안됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www-958.ibm.com/software/data/cognos/manyeyes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many Eyes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +1000,10 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,7 +1021,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1096,7 +1121,7 @@
     </row>
     <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>29</v>
@@ -1209,8 +1234,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1247,12 +1272,12 @@
         <v>11</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>30</v>
@@ -1371,7 +1396,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>46</v>
@@ -1445,7 +1470,7 @@
     </row>
     <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>50</v>
@@ -1482,10 +1507,10 @@
     </row>
     <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>61</v>
@@ -1563,7 +1588,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>69</v>
@@ -1640,7 +1665,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>50</v>
@@ -1668,7 +1693,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -1816,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1924,7 +1949,7 @@
     </row>
     <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>50</v>
@@ -1933,7 +1958,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>63</v>
@@ -1960,12 +1985,12 @@
         <v>11</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>50</v>
@@ -1974,7 +1999,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>63</v>
@@ -1999,34 +2024,32 @@
         <v>11</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="F29" s="6">
         <v>40544</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
         <v>11</v>
       </c>
@@ -2040,17 +2063,31 @@
         <v>11</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="6">
+        <v>40544</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2144,6 +2181,7 @@
     <hyperlink ref="D28" r:id="rId25"/>
     <hyperlink ref="D29" r:id="rId26"/>
     <hyperlink ref="A1" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
